--- a/src/test/resources/Excel/HRMSdata.xlsx
+++ b/src/test/resources/Excel/HRMSdata.xlsx
@@ -1,19 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22827"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\beyha\eclipse-workspace\HrmsFramework\src\test\resources\Excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\beyha\eclipse-workspace\HRMSCucumber\src\test\resources\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AB4F3818-06A2-4705-98CD-A50F4FF83905}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9988A187-E6FC-4078-BFE4-7640AD741EEA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="31350" yWindow="2475" windowWidth="13170" windowHeight="13680" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="20370" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="addEmployeeData" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="40">
   <si>
     <t>firstName</t>
   </si>
@@ -91,13 +92,67 @@
   </si>
   <si>
     <t>Amirhan@123ss</t>
+  </si>
+  <si>
+    <t>FirstName</t>
+  </si>
+  <si>
+    <t>LastName</t>
+  </si>
+  <si>
+    <t>Username</t>
+  </si>
+  <si>
+    <t>Password</t>
+  </si>
+  <si>
+    <t>Smith</t>
+  </si>
+  <si>
+    <t>Ann</t>
+  </si>
+  <si>
+    <t>mary56234234345345</t>
+  </si>
+  <si>
+    <t>Tarlaci</t>
+  </si>
+  <si>
+    <t>ali562342342353</t>
+  </si>
+  <si>
+    <t>john58694535</t>
+  </si>
+  <si>
+    <t>MiddleName</t>
+  </si>
+  <si>
+    <t>Jack</t>
+  </si>
+  <si>
+    <t>Mimi</t>
+  </si>
+  <si>
+    <t>Veli</t>
+  </si>
+  <si>
+    <t>AmirKhan_*@123</t>
+  </si>
+  <si>
+    <t>Johnn</t>
+  </si>
+  <si>
+    <t>Maryy</t>
+  </si>
+  <si>
+    <t>Alii</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -109,6 +164,25 @@
       <u/>
       <sz val="11"/>
       <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="16"/>
+      <color theme="1"/>
+      <name val="Helvetica"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -131,17 +205,20 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="2" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="3">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal 2" xfId="2" xr:uid="{37C4EC99-CA1E-4F9E-BE6F-E742972EE217}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -421,7 +498,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
@@ -527,4 +604,112 @@
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4E6315B5-2B77-4290-B723-15AC445FFE15}">
+  <dimension ref="A1:F5"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D33" sqref="D33"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="16.85546875" customWidth="1"/>
+    <col min="2" max="2" width="22.5703125" customWidth="1"/>
+    <col min="3" max="3" width="20.28515625" customWidth="1"/>
+    <col min="4" max="4" width="34.140625" customWidth="1"/>
+    <col min="5" max="5" width="20.85546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" ht="20.25" x14ac:dyDescent="0.3">
+      <c r="A1" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="F1" s="2"/>
+    </row>
+    <row r="2" spans="1:6" ht="20.25" x14ac:dyDescent="0.3">
+      <c r="A2" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="F2" s="2"/>
+    </row>
+    <row r="3" spans="1:6" ht="20.25" x14ac:dyDescent="0.3">
+      <c r="A3" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="F3" s="2"/>
+    </row>
+    <row r="4" spans="1:6" ht="20.25" x14ac:dyDescent="0.3">
+      <c r="A4" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="F4" s="2"/>
+    </row>
+    <row r="5" spans="1:6" ht="20.25" x14ac:dyDescent="0.3">
+      <c r="A5" s="2"/>
+      <c r="B5" s="2"/>
+      <c r="C5" s="2"/>
+      <c r="D5" s="2"/>
+      <c r="E5" s="2"/>
+      <c r="F5" s="2"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="4" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="E2" r:id="rId1" xr:uid="{6666CBD6-000C-4E71-BEEB-7F495F20FFE2}"/>
+    <hyperlink ref="E3" r:id="rId2" xr:uid="{5C19B903-D2CE-411E-B701-91CD8661C1CF}"/>
+    <hyperlink ref="E4" r:id="rId3" xr:uid="{4810659C-CDDF-4C38-B3BB-BECECF77FD32}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/src/test/resources/Excel/HRMSdata.xlsx
+++ b/src/test/resources/Excel/HRMSdata.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\beyha\eclipse-workspace\HRMSCucumber\src\test\resources\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9988A187-E6FC-4078-BFE4-7640AD741EEA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0A7F5BB2-60DE-4300-AC9B-6A2D23811876}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="20370" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="42">
   <si>
     <t>firstName</t>
   </si>
@@ -109,18 +109,6 @@
     <t>Smith</t>
   </si>
   <si>
-    <t>Ann</t>
-  </si>
-  <si>
-    <t>mary56234234345345</t>
-  </si>
-  <si>
-    <t>Tarlaci</t>
-  </si>
-  <si>
-    <t>ali562342342353</t>
-  </si>
-  <si>
     <t>john58694535</t>
   </si>
   <si>
@@ -130,22 +118,40 @@
     <t>Jack</t>
   </si>
   <si>
-    <t>Mimi</t>
-  </si>
-  <si>
-    <t>Veli</t>
-  </si>
-  <si>
-    <t>AmirKhan_*@123</t>
-  </si>
-  <si>
     <t>Johnn</t>
   </si>
   <si>
-    <t>Maryy</t>
-  </si>
-  <si>
-    <t>Alii</t>
+    <t>Haryy</t>
+  </si>
+  <si>
+    <t>Mimis</t>
+  </si>
+  <si>
+    <t>Annys</t>
+  </si>
+  <si>
+    <t>mary567298045</t>
+  </si>
+  <si>
+    <t>Jordon</t>
+  </si>
+  <si>
+    <t>Jelli</t>
+  </si>
+  <si>
+    <t>John</t>
+  </si>
+  <si>
+    <t>Jor35323765</t>
+  </si>
+  <si>
+    <t>JohKhan_*@123</t>
+  </si>
+  <si>
+    <t>mayrKhan_*@123</t>
+  </si>
+  <si>
+    <t>jorKhan_*@123</t>
   </si>
 </sst>
 </file>
@@ -611,7 +617,7 @@
   <dimension ref="A1:F5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D33" sqref="D33"/>
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -628,7 +634,7 @@
         <v>22</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="C1" s="2" t="s">
         <v>23</v>
@@ -643,55 +649,55 @@
     </row>
     <row r="2" spans="1:6" ht="20.25" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>26</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="F2" s="2"/>
     </row>
     <row r="3" spans="1:6" ht="20.25" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="B3" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="D3" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="C3" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>28</v>
-      </c>
       <c r="E3" s="1" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="F3" s="2"/>
     </row>
     <row r="4" spans="1:6" ht="20.25" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>30</v>
+        <v>38</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="F4" s="2"/>
     </row>
